--- a/OpenFOAM/results/OpenFOAM benchmarks.xlsx
+++ b/OpenFOAM/results/OpenFOAM benchmarks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C4C7D8-03FC-43CC-8F3A-1B857D5C2889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4ED9079-BDAF-4706-B599-E66A7A7B66FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,6 +569,20 @@
         <v>1059</v>
       </c>
     </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1280</v>
+      </c>
+      <c r="F19">
+        <v>3233</v>
+      </c>
+      <c r="J19">
+        <v>1448</v>
+      </c>
+    </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>7</v>
@@ -712,6 +726,20 @@
       </c>
       <c r="J37">
         <v>2013</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>1280</v>
+      </c>
+      <c r="F38">
+        <v>4002</v>
+      </c>
+      <c r="J38">
+        <v>2297</v>
       </c>
     </row>
   </sheetData>

--- a/OpenFOAM/results/OpenFOAM benchmarks.xlsx
+++ b/OpenFOAM/results/OpenFOAM benchmarks.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4ED9079-BDAF-4706-B599-E66A7A7B66FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djb1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0D786-9495-42F2-98DD-C7B017F83CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="1095" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Benchmarks on iridis 5 with OpenFOAM v10.0</t>
   </si>
@@ -55,13 +58,16 @@
   </si>
   <si>
     <t>Mesh generation (AllmeshL)</t>
+  </si>
+  <si>
+    <t>Parallel Scaling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,30 +412,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -442,303 +448,399 @@
       <c r="J7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="J10">
+        <v>76737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>45419</v>
+      </c>
+      <c r="N11">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>27010</v>
+      </c>
+      <c r="N12">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>13804</v>
+      </c>
+      <c r="N13">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>7520</v>
+      </c>
+      <c r="N14">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>4706</v>
+      </c>
+      <c r="N15">
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="F16">
         <v>1529</v>
       </c>
-      <c r="J9">
+      <c r="J16">
         <v>4050</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+      <c r="N16">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="C10">
+      <c r="C17">
         <v>80</v>
       </c>
-      <c r="F10">
+      <c r="F17">
         <v>1390</v>
       </c>
-      <c r="J10">
+      <c r="J17">
         <v>2273</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
+      <c r="N17">
+        <v>33.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C18">
         <v>120</v>
       </c>
-      <c r="F11">
+      <c r="F18">
         <v>1398</v>
       </c>
-      <c r="J11">
+      <c r="J18">
         <v>1674</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+      <c r="N18">
+        <v>45.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C19">
         <v>160</v>
       </c>
-      <c r="F12">
+      <c r="F19">
         <v>1401</v>
       </c>
-      <c r="J12">
+      <c r="J19">
         <v>1339</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
+      <c r="N19">
+        <v>57.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C20">
         <v>200</v>
       </c>
-      <c r="F13">
+      <c r="F20">
         <v>1481</v>
       </c>
-      <c r="J13">
+      <c r="J20">
         <v>1197</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
+      <c r="N20">
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C21">
         <v>240</v>
       </c>
-      <c r="F14">
+      <c r="F21">
         <v>1446</v>
       </c>
-      <c r="J14">
+      <c r="J21">
         <v>1083</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
+      <c r="N21">
+        <v>70.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C22">
         <v>280</v>
       </c>
-      <c r="F15">
+      <c r="F22">
         <v>1526</v>
       </c>
-      <c r="J15">
+      <c r="J22">
         <v>1034</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
+      <c r="N22">
+        <v>74.209999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C23">
         <v>320</v>
       </c>
-      <c r="F16">
+      <c r="F23">
         <v>1636</v>
       </c>
-      <c r="J16">
+      <c r="J23">
         <v>997</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
+      <c r="N23">
+        <v>76.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C25">
         <v>640</v>
       </c>
-      <c r="F18">
+      <c r="F25">
         <v>2299</v>
       </c>
-      <c r="J18">
+      <c r="J25">
         <v>1059</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
+      <c r="N25">
+        <v>72.459999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>32</v>
       </c>
-      <c r="C19">
+      <c r="C26">
         <v>1280</v>
       </c>
-      <c r="F19">
+      <c r="F26">
         <v>3233</v>
       </c>
-      <c r="J19">
+      <c r="J26">
         <v>1448</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
+      <c r="N26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F33" t="s">
         <v>8</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C35">
         <v>40</v>
       </c>
-      <c r="F28">
+      <c r="F35">
         <v>2137</v>
       </c>
-      <c r="J28">
+      <c r="J35">
         <v>8159</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C36">
         <v>80</v>
       </c>
-      <c r="F29">
+      <c r="F36">
         <v>2017</v>
       </c>
-      <c r="J29">
+      <c r="J36">
         <v>4645</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C37">
         <v>120</v>
       </c>
-      <c r="F30">
+      <c r="F37">
         <v>2011</v>
       </c>
-      <c r="J30">
+      <c r="J37">
         <v>3353</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C38">
         <v>160</v>
       </c>
-      <c r="F31">
+      <c r="F38">
         <v>2020</v>
       </c>
-      <c r="J31">
+      <c r="J38">
         <v>2799</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C39">
         <v>200</v>
       </c>
-      <c r="F32">
+      <c r="F39">
         <v>2069</v>
       </c>
-      <c r="J32">
+      <c r="J39">
         <v>2427</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C40">
         <v>240</v>
       </c>
-      <c r="F33">
+      <c r="F40">
         <v>2045</v>
       </c>
-      <c r="J33">
+      <c r="J40">
         <v>2247</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C41">
         <v>280</v>
       </c>
-      <c r="F34">
+      <c r="F41">
         <v>2119</v>
       </c>
-      <c r="J34">
+      <c r="J41">
         <v>2071</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C42">
         <v>320</v>
       </c>
-      <c r="F35">
+      <c r="F42">
         <v>2241</v>
       </c>
-      <c r="J35">
+      <c r="J42">
         <v>1962</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>16</v>
       </c>
-      <c r="C37">
+      <c r="C44">
         <v>640</v>
       </c>
-      <c r="F37">
+      <c r="F44">
         <v>3127</v>
       </c>
-      <c r="J37">
+      <c r="J44">
         <v>2013</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>32</v>
       </c>
-      <c r="C38">
+      <c r="C45">
         <v>1280</v>
       </c>
-      <c r="F38">
+      <c r="F45">
         <v>4002</v>
       </c>
-      <c r="J38">
+      <c r="J45">
         <v>2297</v>
       </c>
     </row>

--- a/OpenFOAM/results/OpenFOAM benchmarks.xlsx
+++ b/OpenFOAM/results/OpenFOAM benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26124"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djb1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/djb1_soton_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F0D786-9495-42F2-98DD-C7B017F83CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9959EF7E-1812-4DDA-943B-020B5F9F2B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10815" yWindow="1095" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="4155" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Benchmarks on iridis 5 with OpenFOAM v10.0</t>
   </si>
@@ -54,23 +56,36 @@
     <t>Computation (Allrun)</t>
   </si>
   <si>
+    <t>Parallel Scaling</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
     <t>Large</t>
   </si>
   <si>
     <t>Mesh generation (AllmeshL)</t>
-  </si>
-  <si>
-    <t>Parallel Scaling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,30 +428,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -449,73 +465,153 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>13801</v>
+      </c>
+      <c r="G10">
+        <f>F10/60</f>
+        <v>230.01666666666668</v>
+      </c>
       <c r="J10">
         <v>76737</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f>J10/60</f>
+        <v>1278.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="F11">
+        <v>5828</v>
+      </c>
+      <c r="G11">
+        <f>F11/60</f>
+        <v>97.13333333333334</v>
+      </c>
       <c r="J11">
         <v>45419</v>
       </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K26" si="0">J11/60</f>
+        <v>756.98333333333335</v>
+      </c>
       <c r="N11">
         <v>1.69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="C12">
         <v>4</v>
       </c>
+      <c r="F12">
+        <v>5475</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G26" si="1">F12/60</f>
+        <v>91.25</v>
+      </c>
       <c r="J12">
         <v>27010</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>450.16666666666669</v>
+      </c>
       <c r="N12">
         <v>2.84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="C13">
         <v>8</v>
       </c>
+      <c r="F13">
+        <v>3844</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>64.066666666666663</v>
+      </c>
       <c r="J13">
         <v>13804</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>230.06666666666666</v>
+      </c>
       <c r="N13">
         <v>5.56</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="C14">
         <v>16</v>
       </c>
+      <c r="F14">
+        <v>3034</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>50.56666666666667</v>
+      </c>
       <c r="J14">
         <v>7520</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>125.33333333333333</v>
+      </c>
       <c r="N14">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="C15">
         <v>32</v>
       </c>
+      <c r="F15">
+        <v>2027</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>33.783333333333331</v>
+      </c>
       <c r="J15">
         <v>4706</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>78.433333333333337</v>
+      </c>
       <c r="N15">
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>1</v>
       </c>
@@ -525,14 +621,22 @@
       <c r="F16">
         <v>1529</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>25.483333333333334</v>
+      </c>
       <c r="J16">
         <v>4050</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
       <c r="N16">
         <v>18.95</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>2</v>
       </c>
@@ -542,14 +646,22 @@
       <c r="F17">
         <v>1390</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>23.166666666666668</v>
+      </c>
       <c r="J17">
         <v>2273</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>37.883333333333333</v>
+      </c>
       <c r="N17">
         <v>33.67</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>3</v>
       </c>
@@ -559,14 +671,22 @@
       <c r="F18">
         <v>1398</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>23.3</v>
+      </c>
       <c r="J18">
         <v>1674</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
       <c r="N18">
         <v>45.84</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>4</v>
       </c>
@@ -576,14 +696,22 @@
       <c r="F19">
         <v>1401</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>23.35</v>
+      </c>
       <c r="J19">
         <v>1339</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>22.316666666666666</v>
+      </c>
       <c r="N19">
         <v>57.31</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>5</v>
       </c>
@@ -593,14 +721,22 @@
       <c r="F20">
         <v>1481</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>24.683333333333334</v>
+      </c>
       <c r="J20">
         <v>1197</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
       <c r="N20">
         <v>64.11</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>6</v>
       </c>
@@ -610,14 +746,22 @@
       <c r="F21">
         <v>1446</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>24.1</v>
+      </c>
       <c r="J21">
         <v>1083</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>18.05</v>
+      </c>
       <c r="N21">
         <v>70.86</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>7</v>
       </c>
@@ -627,14 +771,22 @@
       <c r="F22">
         <v>1526</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>25.433333333333334</v>
+      </c>
       <c r="J22">
         <v>1034</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>17.233333333333334</v>
+      </c>
       <c r="N22">
         <v>74.209999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>8</v>
       </c>
@@ -644,14 +796,22 @@
       <c r="F23">
         <v>1636</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>27.266666666666666</v>
+      </c>
       <c r="J23">
         <v>997</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>16.616666666666667</v>
+      </c>
       <c r="N23">
         <v>76.97</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>16</v>
       </c>
@@ -661,14 +821,22 @@
       <c r="F25">
         <v>2299</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>38.31666666666667</v>
+      </c>
       <c r="J25">
         <v>1059</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>17.649999999999999</v>
+      </c>
       <c r="N25">
         <v>72.459999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>32</v>
       </c>
@@ -678,19 +846,27 @@
       <c r="F26">
         <v>3233</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>53.883333333333333</v>
+      </c>
       <c r="J26">
         <v>1448</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>24.133333333333333</v>
+      </c>
       <c r="N26">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -698,150 +874,398 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="N33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="C35">
+      <c r="J37">
+        <v>133161</v>
+      </c>
+      <c r="K37">
+        <v>2219.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>9640</v>
+      </c>
+      <c r="G38">
+        <f>F38/60</f>
+        <v>160.66666666666666</v>
+      </c>
+      <c r="J38">
+        <v>108763</v>
+      </c>
+      <c r="K38">
+        <f>J38/60</f>
+        <v>1812.7166666666667</v>
+      </c>
+      <c r="N38">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>6585</v>
+      </c>
+      <c r="G39">
+        <f>F39/60</f>
+        <v>109.75</v>
+      </c>
+      <c r="J39">
+        <v>49483</v>
+      </c>
+      <c r="K39">
+        <f>J39/60</f>
+        <v>824.7166666666667</v>
+      </c>
+      <c r="N39">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>5127</v>
+      </c>
+      <c r="G40">
+        <f>F40/60</f>
+        <v>85.45</v>
+      </c>
+      <c r="J40">
+        <v>31820</v>
+      </c>
+      <c r="K40">
+        <f>J40/60</f>
+        <v>530.33333333333337</v>
+      </c>
+      <c r="N40">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="F41">
+        <v>3946</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G53" si="2">F41/60</f>
+        <v>65.766666666666666</v>
+      </c>
+      <c r="J41">
+        <v>14436</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:K53" si="3">J41/60</f>
+        <v>240.6</v>
+      </c>
+      <c r="N41">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <v>2845</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>47.416666666666664</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10709</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="3"/>
+        <v>178.48333333333332</v>
+      </c>
+      <c r="N42">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>40</v>
       </c>
-      <c r="F35">
+      <c r="F43">
         <v>2137</v>
       </c>
-      <c r="J35">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>35.616666666666667</v>
+      </c>
+      <c r="J43">
         <v>8159</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>135.98333333333332</v>
+      </c>
+      <c r="N43">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="C44">
         <v>80</v>
       </c>
-      <c r="F36">
+      <c r="F44">
         <v>2017</v>
       </c>
-      <c r="J36">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>33.616666666666667</v>
+      </c>
+      <c r="J44">
         <v>4645</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>77.416666666666671</v>
+      </c>
+      <c r="N44">
+        <v>28.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
         <v>3</v>
       </c>
-      <c r="C37">
+      <c r="C45">
         <v>120</v>
       </c>
-      <c r="F37">
+      <c r="F45">
         <v>2011</v>
       </c>
-      <c r="J37">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>33.516666666666666</v>
+      </c>
+      <c r="J45">
         <v>3353</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>55.883333333333333</v>
+      </c>
+      <c r="N45">
+        <v>39.71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C46">
         <v>160</v>
       </c>
-      <c r="F38">
+      <c r="F46">
         <v>2020</v>
       </c>
-      <c r="J38">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>33.666666666666664</v>
+      </c>
+      <c r="J46">
         <v>2799</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>46.65</v>
+      </c>
+      <c r="N46">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C47">
         <v>200</v>
       </c>
-      <c r="F39">
+      <c r="F47">
         <v>2069</v>
       </c>
-      <c r="J39">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>34.483333333333334</v>
+      </c>
+      <c r="J47">
         <v>2427</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="N47">
+        <v>54.87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
         <v>6</v>
       </c>
-      <c r="C40">
+      <c r="C48">
         <v>240</v>
       </c>
-      <c r="F40">
+      <c r="F48">
         <v>2045</v>
       </c>
-      <c r="J40">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>34.083333333333336</v>
+      </c>
+      <c r="J48">
         <v>2247</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>37.450000000000003</v>
+      </c>
+      <c r="N48">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C49">
         <v>280</v>
       </c>
-      <c r="F41">
+      <c r="F49">
         <v>2119</v>
       </c>
-      <c r="J41">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>35.31666666666667</v>
+      </c>
+      <c r="J49">
         <v>2071</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>34.516666666666666</v>
+      </c>
+      <c r="N49">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
         <v>8</v>
       </c>
-      <c r="C42">
+      <c r="C50">
         <v>320</v>
       </c>
-      <c r="F42">
+      <c r="F50">
         <v>2241</v>
       </c>
-      <c r="J42">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>37.35</v>
+      </c>
+      <c r="J50">
         <v>1962</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N50">
+        <v>67.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
         <v>16</v>
       </c>
-      <c r="C44">
+      <c r="C52">
         <v>640</v>
       </c>
-      <c r="F44">
+      <c r="F52">
         <v>3127</v>
       </c>
-      <c r="J44">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>52.116666666666667</v>
+      </c>
+      <c r="J52">
         <v>2013</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>33.549999999999997</v>
+      </c>
+      <c r="N52">
+        <v>66.150000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
         <v>32</v>
       </c>
-      <c r="C45">
+      <c r="C53">
         <v>1280</v>
       </c>
-      <c r="F45">
+      <c r="F53">
         <v>4002</v>
       </c>
-      <c r="J45">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>66.7</v>
+      </c>
+      <c r="J53">
         <v>2297</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>38.283333333333331</v>
+      </c>
+      <c r="N53">
+        <v>57.97</v>
       </c>
     </row>
   </sheetData>
